--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3204.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3204.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8966674440194224</v>
+        <v>1.494098544120789</v>
       </c>
       <c r="B1">
-        <v>1.623443638007964</v>
+        <v>2.052140951156616</v>
       </c>
       <c r="C1">
-        <v>5.65736623184897</v>
+        <v>2.417945861816406</v>
       </c>
       <c r="D1">
-        <v>4.517959701357076</v>
+        <v>2.887118816375732</v>
       </c>
       <c r="E1">
-        <v>1.79214582226475</v>
+        <v>2.618740558624268</v>
       </c>
     </row>
   </sheetData>
